--- a/data/input/absenteeism_data_33.xlsx
+++ b/data/input/absenteeism_data_33.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1597</v>
+        <v>39586</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benjamin Sales</t>
+          <t>Thiago Rodrigues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>6890.11</v>
+        <v>3332.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92439</v>
+        <v>66979</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitor Hugo Lopes</t>
+          <t>Letícia Ribeiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>6867.66</v>
+        <v>11072.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23149</v>
+        <v>32600</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isadora Freitas</t>
+          <t>Rafaela Ribeiro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,56 +552,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>12157.35</v>
+        <v>5239.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72552</v>
+        <v>39646</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lavínia Almeida</t>
+          <t>Eduarda Pinto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>2869.43</v>
+        <v>10127.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80472</v>
+        <v>77086</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Lucas Gabriel Sales</t>
+          <t>Valentina Azevedo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,140 +613,140 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>9797.790000000001</v>
+        <v>8640.540000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>57677</v>
+        <v>46040</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Luiza da Conceição</t>
+          <t>João Guilherme Pinto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>9632.76</v>
+        <v>4759.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3416</v>
+        <v>2434</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Ana Luiza Monteiro</t>
+          <t>Nicole Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>8688.629999999999</v>
+        <v>8852.610000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39979</v>
+        <v>93282</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alana Pires</t>
+          <t>Helena Dias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>6912.3</v>
+        <v>3583.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89735</v>
+        <v>28946</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gabriela Souza</t>
+          <t>Alexia Rodrigues</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>5281.64</v>
+        <v>3899.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39492</v>
+        <v>69450</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcela Melo</t>
+          <t>Dr. Nathan da Cruz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>8772.889999999999</v>
+        <v>7328.23</v>
       </c>
     </row>
   </sheetData>
